--- a/Luban/Config/Datas/characterInfoData.xlsx
+++ b/Luban/Config/Datas/characterInfoData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2023UnityFile\ARPG_2023\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981918F0-2C32-4C6B-B967-4D2F66BA53AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A2E224-040A-4207-86EA-18C94BCB4CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -226,6 +226,14 @@
   </si>
   <si>
     <t>chaseMul</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI配置ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -631,35 +639,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM15"/>
+  <dimension ref="A1:AN15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="13" width="8.21875" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.77734375" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" customWidth="1"/>
-    <col min="19" max="19" width="15.109375" customWidth="1"/>
-    <col min="20" max="20" width="12.44140625" customWidth="1"/>
-    <col min="21" max="21" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" customWidth="1"/>
+    <col min="2" max="5" width="10.19921875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="14.46484375" customWidth="1"/>
+    <col min="8" max="8" width="10.53125" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="14" width="8.19921875" customWidth="1"/>
+    <col min="15" max="15" width="8.46484375" customWidth="1"/>
+    <col min="16" max="16" width="9.796875" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" customWidth="1"/>
+    <col min="20" max="20" width="15.1328125" customWidth="1"/>
+    <col min="21" max="21" width="12.46484375" customWidth="1"/>
+    <col min="22" max="22" width="9.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -673,51 +681,53 @@
         <v>42</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="T1"/>
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
@@ -737,29 +747,30 @@
       <c r="AK1"/>
       <c r="AL1"/>
       <c r="AM1"/>
-    </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN1"/>
+    </row>
+    <row r="2" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2"/>
+      <c r="E2" s="6"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="I2" s="6"/>
-      <c r="J2"/>
-      <c r="K2" s="6"/>
+      <c r="I2"/>
+      <c r="J2" s="6"/>
+      <c r="K2"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="7"/>
-      <c r="S2"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="7"/>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
@@ -780,8 +791,9 @@
       <c r="AK2"/>
       <c r="AL2"/>
       <c r="AM2"/>
-    </row>
-    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN2"/>
+    </row>
+    <row r="3" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -795,20 +807,20 @@
         <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="J3" s="6" t="s">
         <v>5</v>
       </c>
@@ -833,13 +845,15 @@
       <c r="Q3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3"/>
+      <c r="R3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
@@ -859,29 +873,30 @@
       <c r="AK3"/>
       <c r="AL3"/>
       <c r="AM3"/>
-    </row>
-    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN3"/>
+    </row>
+    <row r="4" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4"/>
+      <c r="E4" s="6"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" s="6"/>
-      <c r="J4"/>
-      <c r="K4" s="6"/>
+      <c r="I4"/>
+      <c r="J4" s="6"/>
+      <c r="K4"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
-      <c r="R4" s="7"/>
-      <c r="S4"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="7"/>
       <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
@@ -902,8 +917,9 @@
       <c r="AK4"/>
       <c r="AL4"/>
       <c r="AM4"/>
-    </row>
-    <row r="5" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN4"/>
+    </row>
+    <row r="5" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -917,39 +933,41 @@
         <v>43</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="6"/>
+      <c r="S5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="T5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
@@ -969,8 +987,9 @@
       <c r="AK5"/>
       <c r="AL5"/>
       <c r="AM5"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN5"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>1</v>
       </c>
@@ -980,53 +999,56 @@
       <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>400</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>800</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>200</v>
-      </c>
-      <c r="L6">
-        <v>150</v>
       </c>
       <c r="M6">
         <v>150</v>
       </c>
       <c r="N6">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="O6">
         <v>130</v>
       </c>
-      <c r="P6" s="4">
-        <v>100</v>
+      <c r="P6">
+        <v>130</v>
       </c>
       <c r="Q6" s="4">
         <v>100</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="4">
+        <v>100</v>
+      </c>
+      <c r="S6">
         <v>60</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>2</v>
       </c>
@@ -1036,81 +1058,84 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>400</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>800</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>200</v>
-      </c>
-      <c r="L7">
-        <v>150</v>
       </c>
       <c r="M7">
         <v>150</v>
       </c>
       <c r="N7">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="O7">
         <v>130</v>
       </c>
-      <c r="P7" s="4">
-        <v>100</v>
+      <c r="P7">
+        <v>130</v>
       </c>
       <c r="Q7" s="4">
         <v>100</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="4">
+        <v>100</v>
+      </c>
+      <c r="S7">
         <v>60</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="P9" s="4"/>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.4">
       <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="P10" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.4">
       <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="P11" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.4">
       <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="P12" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.4">
       <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="K13" s="3"/>
-      <c r="P13" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="L13" s="3"/>
       <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="K14" s="3"/>
-      <c r="P14" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="L14" s="3"/>
       <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="P15" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.4">
       <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Luban/Config/Datas/characterInfoData.xlsx
+++ b/Luban/Config/Datas/characterInfoData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A2E224-040A-4207-86EA-18C94BCB4CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7228C6FE-364B-4772-AFE4-617FE39D2DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -642,7 +642,7 @@
   <dimension ref="A1:AN15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/Luban/Config/Datas/characterInfoData.xlsx
+++ b/Luban/Config/Datas/characterInfoData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7228C6FE-364B-4772-AFE4-617FE39D2DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A69A2B-6392-4059-8F68-2F23C3A6ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -234,6 +234,38 @@
   </si>
   <si>
     <t>AI配置ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>detectDegree</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>detectRadius1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>detectRadius2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>探测角度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级半径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级半径</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -641,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -728,9 +760,15 @@
       <c r="T1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
+      <c r="U1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="X1"/>
       <c r="Y1"/>
       <c r="Z1"/>
@@ -854,9 +892,15 @@
       <c r="T3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
+      <c r="U3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
@@ -968,9 +1012,15 @@
       <c r="T5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
+      <c r="U5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
@@ -1047,6 +1097,15 @@
       <c r="T6">
         <v>100</v>
       </c>
+      <c r="U6">
+        <v>120</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.4">
       <c r="B7">
@@ -1105,6 +1164,15 @@
       </c>
       <c r="T7">
         <v>100</v>
+      </c>
+      <c r="U7">
+        <v>120</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.4">

--- a/Luban/Config/Datas/characterInfoData.xlsx
+++ b/Luban/Config/Datas/characterInfoData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A69A2B-6392-4059-8F68-2F23C3A6ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A26F54-7563-489C-A616-775F474FD79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -266,6 +266,18 @@
   </si>
   <si>
     <t>二级半径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>animGroup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画配置</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -673,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -769,9 +781,9 @@
       <c r="W1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
+      <c r="X1" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AA1"/>
       <c r="AB1"/>
       <c r="AC1"/>
@@ -813,9 +825,6 @@
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
       <c r="AA2"/>
       <c r="AB2"/>
       <c r="AC2"/>
@@ -901,9 +910,9 @@
       <c r="W3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
+      <c r="X3" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3"/>
@@ -945,9 +954,6 @@
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
       <c r="AA4"/>
       <c r="AB4"/>
       <c r="AC4"/>
@@ -1021,9 +1027,9 @@
       <c r="W5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
+      <c r="X5" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5"/>
@@ -1106,6 +1112,9 @@
       <c r="W6">
         <v>12</v>
       </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.4">
       <c r="B7">
@@ -1173,6 +1182,9 @@
       </c>
       <c r="W7">
         <v>12</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.4">

--- a/Luban/Config/Datas/characterInfoData.xlsx
+++ b/Luban/Config/Datas/characterInfoData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A26F54-7563-489C-A616-775F474FD79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C00114F-15D7-47E2-89BF-D9C840655373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,7 +686,7 @@
   <dimension ref="A1:AN15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1080,22 +1080,22 @@
         <v>200</v>
       </c>
       <c r="M6">
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="N6">
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="O6">
-        <v>130</v>
+        <v>1300</v>
       </c>
       <c r="P6">
-        <v>130</v>
+        <v>1300</v>
       </c>
       <c r="Q6" s="4">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="R6" s="4">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="S6">
         <v>60</v>
@@ -1151,22 +1151,22 @@
         <v>200</v>
       </c>
       <c r="M7">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="N7">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="O7">
-        <v>130</v>
+        <v>1500</v>
       </c>
       <c r="P7">
-        <v>130</v>
+        <v>1500</v>
       </c>
       <c r="Q7" s="4">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R7" s="4">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="S7">
         <v>60</v>

--- a/Luban/Config/Datas/characterInfoData.xlsx
+++ b/Luban/Config/Datas/characterInfoData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C00114F-15D7-47E2-89BF-D9C840655373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC6D349-C2E2-4B17-93F0-5BE94268DA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,7 +686,7 @@
   <dimension ref="A1:AN15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/Luban/Config/Datas/characterInfoData.xlsx
+++ b/Luban/Config/Datas/characterInfoData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC6D349-C2E2-4B17-93F0-5BE94268DA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461CABAC-341E-4EB6-A547-F4D1B18728AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -278,6 +278,10 @@
   </si>
   <si>
     <t>动画配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平民</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -685,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1187,6 +1191,77 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>400</v>
+      </c>
+      <c r="K8">
+        <v>800</v>
+      </c>
+      <c r="L8">
+        <v>200</v>
+      </c>
+      <c r="M8">
+        <v>1500</v>
+      </c>
+      <c r="N8">
+        <v>1500</v>
+      </c>
+      <c r="O8">
+        <v>1500</v>
+      </c>
+      <c r="P8">
+        <v>1500</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>70</v>
+      </c>
+      <c r="R8" s="4">
+        <v>72</v>
+      </c>
+      <c r="S8">
+        <v>60</v>
+      </c>
+      <c r="T8">
+        <v>100</v>
+      </c>
+      <c r="U8">
+        <v>120</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8">
+        <v>12</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+    </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.4">
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>

--- a/Luban/Config/Datas/characterInfoData.xlsx
+++ b/Luban/Config/Datas/characterInfoData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461CABAC-341E-4EB6-A547-F4D1B18728AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE37FBA3-3BAD-4464-B795-A00922CE4924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,7 +690,7 @@
   <dimension ref="A1:AN15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J6" sqref="J6:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1075,13 +1075,13 @@
         <v>21</v>
       </c>
       <c r="J6">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="K6">
         <v>800</v>
       </c>
       <c r="L6">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="M6">
         <v>1800</v>
@@ -1146,13 +1146,13 @@
         <v>20</v>
       </c>
       <c r="J7">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="K7">
         <v>800</v>
       </c>
       <c r="L7">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="M7">
         <v>1500</v>
@@ -1217,13 +1217,13 @@
         <v>20</v>
       </c>
       <c r="J8">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="K8">
         <v>800</v>
       </c>
       <c r="L8">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="M8">
         <v>1500</v>

--- a/Luban/Config/Datas/characterInfoData.xlsx
+++ b/Luban/Config/Datas/characterInfoData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE37FBA3-3BAD-4464-B795-A00922CE4924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B40651C-CF4A-4936-8872-6122D858D471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -785,9 +785,11 @@
       <c r="W1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>58</v>
       </c>
+      <c r="Y1"/>
+      <c r="Z1"/>
       <c r="AA1"/>
       <c r="AB1"/>
       <c r="AC1"/>
@@ -829,6 +831,9 @@
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
       <c r="AA2"/>
       <c r="AB2"/>
       <c r="AC2"/>
@@ -914,9 +919,11 @@
       <c r="W3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" t="s">
         <v>59</v>
       </c>
+      <c r="Y3"/>
+      <c r="Z3"/>
       <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3"/>
@@ -958,6 +965,9 @@
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
       <c r="AA4"/>
       <c r="AB4"/>
       <c r="AC4"/>
@@ -1031,9 +1041,11 @@
       <c r="W5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X5" t="s">
         <v>60</v>
       </c>
+      <c r="Y5"/>
+      <c r="Z5"/>
       <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5"/>
@@ -1075,7 +1087,7 @@
         <v>21</v>
       </c>
       <c r="J6">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="K6">
         <v>800</v>
@@ -1146,7 +1158,7 @@
         <v>20</v>
       </c>
       <c r="J7">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="K7">
         <v>800</v>
@@ -1217,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="J8">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="K8">
         <v>800</v>
